--- a/public/data/labour_lists.xlsx
+++ b/public/data/labour_lists.xlsx
@@ -8,12 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -25,40 +25,40 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrc</t>
+  </si>
+  <si>
     <t xml:space="preserve">father_name</t>
   </si>
   <si>
-    <t xml:space="preserve">nrc</t>
-  </si>
-  <si>
     <t xml:space="preserve">date_of_birth</t>
   </si>
   <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
     <t xml:space="preserve">passport</t>
   </si>
   <si>
     <t xml:space="preserve">passport_date</t>
   </si>
   <si>
+    <t xml:space="preserve">owic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owic_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_of_passport</t>
+  </si>
+  <si>
     <t xml:space="preserve">phone</t>
   </si>
   <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_of_passport</t>
-  </si>
-  <si>
     <t xml:space="preserve">remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owic_date</t>
   </si>
 </sst>
 </file>
@@ -70,9 +70,10 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -139,7 +140,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -159,86 +160,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>